--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -15,8 +15,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -61,19 +101,32 @@
   </si>
   <si>
     <t>Develop node to read the data from the USGS Water Watch data repository</t>
+  </si>
+  <si>
+    <t>Location Enhancemets to Events</t>
+  </si>
+  <si>
+    <t>Enhance all VDAB events to support GPS location.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,16 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
@@ -455,81 +508,99 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C9" si="0">TEXT(D2,"DD-MMM-YY")</f>
-        <v>01-Jul-19</v>
+        <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
+        <v>01-Jun-19</v>
       </c>
       <c r="D2" s="1">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="E2" s="3">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>05-Jul-19</v>
+        <f t="shared" ref="C3:C5" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
-        <v>43651</v>
+        <v>43647</v>
       </c>
       <c r="E3" s="3">
-        <v>20</v>
-      </c>
-      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>01-Aug-19</v>
+        <f t="shared" si="1"/>
+        <v>05-Jul-19</v>
       </c>
       <c r="D4" s="1">
-        <v>43678</v>
+        <v>43651</v>
       </c>
       <c r="E4" s="3">
         <v>20</v>
       </c>
       <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Aug-19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -558,14 +629,21 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>Enhance all VDAB events to support GPS location.</t>
+  </si>
+  <si>
+    <t>Complete load and query performance test for 500,000 multi parameter metric events.</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Complete load and query performance test for 5,000,000 multi parameter metric events.</t>
+  </si>
+  <si>
+    <t>5 Million Performance Test</t>
+  </si>
+  <si>
+    <t>500 Thousand Performance Test</t>
   </si>
 </sst>
 </file>
@@ -467,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C5" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C7" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -580,7 +595,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -596,23 +611,57 @@
         <v>20</v>
       </c>
       <c r="F5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Aug-19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Sep-19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43709</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
       <c r="F7" s="5"/>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
@@ -635,10 +684,16 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -118,10 +118,10 @@
     <t>Complete load and query performance test for 5,000,000 multi parameter metric events.</t>
   </si>
   <si>
-    <t>5 Million Performance Test</t>
-  </si>
-  <si>
-    <t>500 Thousand Performance Test</t>
+    <t>5 Million Event Load Test</t>
+  </si>
+  <si>
+    <t>500,000 Event Load Test</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="21150" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -70,58 +70,64 @@
     <t>Complete</t>
   </si>
   <si>
+    <t>DueAsDate</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>%Complete</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>Enhanced Alert Support</t>
+  </si>
+  <si>
+    <t>Develop enhanced alerting capabilities needed to support Alert locations.</t>
+  </si>
+  <si>
+    <t>USGS Service Node</t>
+  </si>
+  <si>
+    <t>Develop node to read the data from the USGS Water Watch data repository</t>
+  </si>
+  <si>
+    <t>Location Enhancemets to Events</t>
+  </si>
+  <si>
+    <t>Enhance all VDAB events to support GPS location.</t>
+  </si>
+  <si>
+    <t>Complete load and query performance test for 500,000 multi parameter metric events.</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Complete load and query performance test for 5,000,000 multi parameter metric events.</t>
+  </si>
+  <si>
+    <t>5 Million Event Load Test</t>
+  </si>
+  <si>
+    <t>500,000 Event Load Test</t>
+  </si>
+  <si>
+    <t>NDBC Buoy Service Node</t>
+  </si>
+  <si>
+    <t>Develop a nde to read the latest Buoy data from the NDBC.</t>
+  </si>
+  <si>
+    <t>Complete Greate Lakes Model</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>DueAsDate</t>
-  </si>
-  <si>
-    <t>Estimate</t>
-  </si>
-  <si>
-    <t>%Complete</t>
-  </si>
-  <si>
-    <t>DueDate</t>
-  </si>
-  <si>
-    <t>Enhanced Alert Support</t>
-  </si>
-  <si>
-    <t>Develop enhanced alerting capabilities needed to support Alert locations.</t>
-  </si>
-  <si>
-    <t>USGS Service Node</t>
-  </si>
-  <si>
-    <t>GLOS Buoy Service Node</t>
-  </si>
-  <si>
-    <t>Develop a nde to read the latest Buoy data from the GLOS Buoy System</t>
-  </si>
-  <si>
-    <t>Develop node to read the data from the USGS Water Watch data repository</t>
-  </si>
-  <si>
-    <t>Location Enhancemets to Events</t>
-  </si>
-  <si>
-    <t>Enhance all VDAB events to support GPS location.</t>
-  </si>
-  <si>
-    <t>Complete load and query performance test for 500,000 multi parameter metric events.</t>
-  </si>
-  <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
-    <t>Complete load and query performance test for 5,000,000 multi parameter metric events.</t>
-  </si>
-  <si>
-    <t>5 Million Event Load Test</t>
-  </si>
-  <si>
-    <t>500,000 Event Load Test</t>
+    <t>Complete the development of the Great Lakes data model including all lakes</t>
   </si>
 </sst>
 </file>
@@ -482,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,16 +512,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -523,7 +529,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -542,18 +548,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C7" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C8" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -566,12 +572,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -590,15 +596,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
@@ -611,18 +617,18 @@
         <v>20</v>
       </c>
       <c r="F5" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
@@ -635,39 +641,55 @@
         <v>20</v>
       </c>
       <c r="F6" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>01-Sep-19</v>
+        <v>15-Aug-19</v>
       </c>
       <c r="D7" s="1">
-        <v>43709</v>
+        <v>43692</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Sep-19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43723</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
       <c r="F8" s="5"/>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
@@ -690,10 +712,16 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -121,13 +121,13 @@
     <t>Develop a nde to read the latest Buoy data from the NDBC.</t>
   </si>
   <si>
-    <t>Complete Greate Lakes Model</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
     <t>Complete the development of the Great Lakes data model including all lakes</t>
+  </si>
+  <si>
+    <t>Complete Great Lakes Watershed</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +649,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>Complete Great Lakes Watershed</t>
+  </si>
+  <si>
+    <t>Server Migration to AWS</t>
+  </si>
+  <si>
+    <t>Migrate reporting and alert support features of Mirro1 to AWS</t>
+  </si>
+  <si>
+    <t>Server Backup Implementation</t>
+  </si>
+  <si>
+    <t>Implet a server backup and recover strategy.</t>
   </si>
 </sst>
 </file>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C8" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C10" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -671,37 +683,69 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Sep-19</v>
+        <v>15-Aug-19</v>
       </c>
       <c r="D8" s="1">
-        <v>43723</v>
+        <v>43692</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Aug-19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43692</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Sep-19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43723</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
@@ -718,10 +762,22 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -139,7 +139,13 @@
     <t>Server Backup Implementation</t>
   </si>
   <si>
-    <t>Implet a server backup and recover strategy.</t>
+    <t>Production Monitoring</t>
+  </si>
+  <si>
+    <t>Implement a server backup and recover strategy.</t>
+  </si>
+  <si>
+    <t>Implement comprehensive production server monitoring</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C10" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C11" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -664,7 +670,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
@@ -676,7 +682,9 @@
       <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
       <c r="G7" t="s">
         <v>22</v>
       </c>
@@ -686,7 +694,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -698,7 +706,9 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -708,7 +718,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -720,38 +730,58 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
+        <v>01-Sep-19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43709</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>15-Sep-19</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>43723</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>30</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
@@ -774,10 +804,16 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Develop a nde to read the latest Buoy data from the NDBC.</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>Complete the development of the Great Lakes data model including all lakes</t>
   </si>
   <si>
@@ -146,6 +143,15 @@
   </si>
   <si>
     <t>Implement comprehensive production server monitoring</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Develop a node to read data from the WQDataLive data repository</t>
+  </si>
+  <si>
+    <t>WQDataLive Service Node</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C11" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C12" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -667,7 +673,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -686,12 +692,12 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -710,12 +716,12 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -734,15 +740,15 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -755,39 +761,57 @@
         <v>16</v>
       </c>
       <c r="F10" s="5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Sep-19</v>
+        <v>12-Sep-19</v>
       </c>
       <c r="D11" s="1">
-        <v>43723</v>
+        <v>43720</v>
       </c>
       <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Oct-19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43753</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
@@ -810,10 +834,16 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>WQDataLive Service Node</t>
+  </si>
+  <si>
+    <t>Location Support for MongoDB</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>Enhance the VDAB Mongo DB persistence to include Geo location support.</t>
   </si>
 </sst>
 </file>
@@ -515,7 +524,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,10 +809,10 @@
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Oct-19</v>
+        <v>15-Nov-09</v>
       </c>
       <c r="D12" s="1">
-        <v>43753</v>
+        <v>76656</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -814,10 +823,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
       <c r="F13" s="5"/>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>Enhance the VDAB Mongo DB persistence to include Geo location support.</t>
+  </si>
+  <si>
+    <t>HTTPS Web Support</t>
+  </si>
+  <si>
+    <t>Develop complete support for using HTTPS for Rest APIs and maps.</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C12" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C13" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -802,48 +808,66 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Nov-09</v>
+        <v>15-Oct-09</v>
       </c>
       <c r="D12" s="1">
-        <v>76656</v>
+        <v>76625</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Nov-09</v>
+      </c>
+      <c r="D13" s="1">
+        <v>76656</v>
+      </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
       <c r="F14" s="5"/>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
@@ -857,13 +881,19 @@
       <c r="E16" s="3"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Develop complete support for using HTTPS for Rest APIs and maps.</t>
+  </si>
+  <si>
+    <t>Integrated Units Conversion</t>
+  </si>
+  <si>
+    <t>11./15/2019</t>
+  </si>
+  <si>
+    <t>Add integrated support of metric unit conversion.</t>
   </si>
 </sst>
 </file>
@@ -527,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C13" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C14" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -832,48 +841,63 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>15-Nov-09</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>76656</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>30</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3">
-        <v>40</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>40</v>
+      </c>
       <c r="F15" s="5"/>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
@@ -890,10 +914,16 @@
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -172,10 +172,25 @@
     <t>Integrated Units Conversion</t>
   </si>
   <si>
-    <t>11./15/2019</t>
-  </si>
-  <si>
     <t>Add integrated support of metric unit conversion.</t>
+  </si>
+  <si>
+    <t>Hobolink Service Node</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Develop a node for reading data directly from Hobolink</t>
+  </si>
+  <si>
+    <t>Data Certification Support</t>
+  </si>
+  <si>
+    <t>Develop complete support for data certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled </t>
   </si>
 </sst>
 </file>
@@ -536,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C14" si="1">TEXT(D3,"DD-MMM-YY")</f>
+        <f t="shared" ref="C3:C17" si="1">TEXT(D3,"DD-MMM-YY")</f>
         <v>01-Jul-19</v>
       </c>
       <c r="D3" s="1">
@@ -846,18 +861,21 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>01-Feb-20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43862</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
         <v>0.5</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,14 +883,14 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Nov-09</v>
+        <v>01-Feb-20</v>
       </c>
       <c r="D14" s="1">
-        <v>76656</v>
+        <v>43862</v>
       </c>
       <c r="E14" s="3">
         <v>30</v>
@@ -884,46 +902,91 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Jan-20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43845</v>
+      </c>
+      <c r="E15" s="3">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" t="s">
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Apr-20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43936</v>
+      </c>
+      <c r="E16" s="3">
+        <v>80</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>15-Apr-20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43936</v>
+      </c>
+      <c r="E17" s="3">
+        <v>120</v>
+      </c>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,10 +839,10 @@
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>15-Oct-09</v>
+        <v>15-Oct-19</v>
       </c>
       <c r="D12" s="1">
-        <v>76625</v>
+        <v>43753</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>

--- a/planning/TASKS_DataWatershed.xlsx
+++ b/planning/TASKS_DataWatershed.xlsx
@@ -36,27 +36,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -67,9 +52,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>DueAsDate</t>
   </si>
   <si>
@@ -88,72 +70,9 @@
     <t>Develop enhanced alerting capabilities needed to support Alert locations.</t>
   </si>
   <si>
-    <t>USGS Service Node</t>
-  </si>
-  <si>
-    <t>Develop node to read the data from the USGS Water Watch data repository</t>
-  </si>
-  <si>
-    <t>Location Enhancemets to Events</t>
-  </si>
-  <si>
-    <t>Enhance all VDAB events to support GPS location.</t>
-  </si>
-  <si>
-    <t>Complete load and query performance test for 500,000 multi parameter metric events.</t>
-  </si>
-  <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
-    <t>Complete load and query performance test for 5,000,000 multi parameter metric events.</t>
-  </si>
-  <si>
-    <t>5 Million Event Load Test</t>
-  </si>
-  <si>
-    <t>500,000 Event Load Test</t>
-  </si>
-  <si>
-    <t>NDBC Buoy Service Node</t>
-  </si>
-  <si>
-    <t>Develop a nde to read the latest Buoy data from the NDBC.</t>
-  </si>
-  <si>
-    <t>Complete the development of the Great Lakes data model including all lakes</t>
-  </si>
-  <si>
-    <t>Complete Great Lakes Watershed</t>
-  </si>
-  <si>
-    <t>Server Migration to AWS</t>
-  </si>
-  <si>
-    <t>Migrate reporting and alert support features of Mirro1 to AWS</t>
-  </si>
-  <si>
-    <t>Server Backup Implementation</t>
-  </si>
-  <si>
-    <t>Production Monitoring</t>
-  </si>
-  <si>
-    <t>Implement a server backup and recover strategy.</t>
-  </si>
-  <si>
-    <t>Implement comprehensive production server monitoring</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Develop a node to read data from the WQDataLive data repository</t>
-  </si>
-  <si>
-    <t>WQDataLive Service Node</t>
-  </si>
-  <si>
     <t>Location Support for MongoDB</t>
   </si>
   <si>
@@ -190,7 +109,22 @@
     <t>Develop complete support for data certification</t>
   </si>
   <si>
-    <t xml:space="preserve">Scheduled </t>
+    <t>Enhanced Integrated Dashboards</t>
+  </si>
+  <si>
+    <t>Add integerated support for web dashboards including charts and maps</t>
+  </si>
+  <si>
+    <t>Automated Dataset Sync</t>
+  </si>
+  <si>
+    <t>Support automated data recovery and synchronization between backend servers.</t>
+  </si>
+  <si>
+    <t>Integrated MQTT Messaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhance MQTT integration so that all events are published using a standard JSON format </t>
   </si>
 </sst>
 </file>
@@ -551,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,16 +509,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -592,122 +526,122 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C9" si="0">TEXT(D2,"DD-MMM-YY")</f>
+        <v>01-Jul-19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43647</v>
+      </c>
+      <c r="E2" s="3">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2" si="0">TEXT(D2,"DD-MMM-YY")</f>
-        <v>01-Jun-19</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43617</v>
-      </c>
-      <c r="E2" s="3">
-        <v>32</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C17" si="1">TEXT(D3,"DD-MMM-YY")</f>
-        <v>01-Jul-19</v>
+        <f t="shared" si="0"/>
+        <v>15-Oct-19</v>
       </c>
       <c r="D3" s="1">
-        <v>43647</v>
+        <v>43753</v>
       </c>
       <c r="E3" s="3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>05-Jul-19</v>
+        <f t="shared" si="0"/>
+        <v>01-Feb-20</v>
       </c>
       <c r="D4" s="1">
-        <v>43651</v>
+        <v>43862</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01-Aug-19</v>
+        <f t="shared" si="0"/>
+        <v>15-Jan-20</v>
       </c>
       <c r="D5" s="1">
-        <v>43678</v>
+        <v>43845</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01-Aug-19</v>
+        <f t="shared" ref="C6" si="1">TEXT(D6,"DD-MMM-YY")</f>
+        <v>15-Mar-20</v>
       </c>
       <c r="D6" s="1">
-        <v>43678</v>
+        <v>43905</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,278 +649,106 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Aug-19</v>
+        <f t="shared" si="0"/>
+        <v>15-Jun-20</v>
       </c>
       <c r="D7" s="1">
-        <v>43692</v>
+        <v>43997</v>
       </c>
       <c r="E7" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Aug-19</v>
+        <f t="shared" si="0"/>
+        <v>15-Jul-20</v>
       </c>
       <c r="D8" s="1">
-        <v>43692</v>
+        <v>44027</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Aug-19</v>
+        <f t="shared" si="0"/>
+        <v>15-Aug-20</v>
       </c>
       <c r="D9" s="1">
-        <v>43692</v>
+        <v>44058</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01-Sep-19</v>
+        <f t="shared" ref="C10" si="2">TEXT(D10,"DD-MMM-YY")</f>
+        <v>15-Sep-20</v>
       </c>
       <c r="D10" s="1">
-        <v>43709</v>
+        <v>44089</v>
       </c>
       <c r="E10" s="3">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>12-Sep-19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43720</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Oct-19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43753</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01-Feb-20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E13" s="3">
-        <v>40</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>01-Feb-20</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E14" s="3">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Jan-20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43845</v>
-      </c>
-      <c r="E15" s="3">
-        <v>48</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Apr-20</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43936</v>
-      </c>
-      <c r="E16" s="3">
-        <v>80</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>15-Apr-20</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43936</v>
-      </c>
-      <c r="E17" s="3">
-        <v>120</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
